--- a/实验室情况.xlsx
+++ b/实验室情况.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="实验室情况" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>环境</t>
   </si>
@@ -39,16 +39,20 @@
   <si>
     <t>Java</t>
   </si>
+  <si>
+    <t>maven-archtype-helloworld 
+org.shithappens</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,6 +91,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -94,8 +106,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,15 +161,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,9 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,62 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +235,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,139 +391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,22 +436,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +445,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,13 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,147 +509,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,24 +670,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,60 +1014,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="2"/>
     <col min="3" max="3" width="13.2857142857143" style="2"/>
-    <col min="4" max="4" width="13.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="69.4821428571429" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>44377</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>44387</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" ht="31" spans="3:4">
+      <c r="C4" s="6">
+        <v>44445</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
